--- a/REGULAR/TREASURY/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/TREASURY/OLEGARIO TEOFISTA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0186CB15-4D52-4201-9C7C-D7217846F0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD299D-AACC-48AE-92F9-3AD6E0CC8C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -359,6 +351,12 @@
   </si>
   <si>
     <t>11/4,7/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2/10,13/2023</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1049,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1380,12 +1378,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1550,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>163.524</v>
+        <v>167.274</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1562,7 +1560,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>318.37</v>
+        <v>322.12</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3216,15 +3214,19 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>44896</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -3232,7 +3234,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3248,31 +3252,45 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="A87" s="40">
+        <f>EDATE(A85,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <f t="shared" ref="A88:A121" si="0">EDATE(A87,1)</f>
+        <v>44958</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -3280,7 +3298,10 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3296,7 +3317,10 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3312,7 +3336,10 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3328,7 +3355,10 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3344,7 +3374,10 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3360,7 +3393,10 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3376,7 +3412,10 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <f t="shared" si="0"/>
+        <v>45170</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3392,7 +3431,10 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3408,7 +3450,10 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <f t="shared" si="0"/>
+        <v>45231</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3424,7 +3469,10 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3440,7 +3488,10 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3456,7 +3507,10 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <f t="shared" si="0"/>
+        <v>45323</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3472,7 +3526,10 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <f t="shared" si="0"/>
+        <v>45352</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3488,7 +3545,10 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3504,7 +3564,10 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <f t="shared" si="0"/>
+        <v>45413</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3520,7 +3583,10 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <f t="shared" si="0"/>
+        <v>45444</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3536,7 +3602,10 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <f t="shared" si="0"/>
+        <v>45474</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3552,7 +3621,10 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <f t="shared" si="0"/>
+        <v>45505</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3568,7 +3640,10 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <f t="shared" si="0"/>
+        <v>45536</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3584,7 +3659,10 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <f t="shared" si="0"/>
+        <v>45566</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3600,7 +3678,10 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <f t="shared" si="0"/>
+        <v>45597</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3616,7 +3697,10 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <f t="shared" si="0"/>
+        <v>45627</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3632,7 +3716,10 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3648,7 +3735,10 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <f t="shared" si="0"/>
+        <v>45689</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3664,7 +3754,10 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <f t="shared" si="0"/>
+        <v>45717</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3680,7 +3773,10 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <f t="shared" si="0"/>
+        <v>45748</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3696,7 +3792,10 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <f t="shared" si="0"/>
+        <v>45778</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3712,7 +3811,10 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <f t="shared" si="0"/>
+        <v>45809</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3728,7 +3830,10 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <f t="shared" si="0"/>
+        <v>45839</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3744,7 +3849,10 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <f t="shared" si="0"/>
+        <v>45870</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3760,7 +3868,10 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <f t="shared" si="0"/>
+        <v>45901</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3776,7 +3887,10 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <f t="shared" si="0"/>
+        <v>45931</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3792,7 +3906,10 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <f t="shared" si="0"/>
+        <v>45962</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3920,20 +4037,36 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="41"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="43"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="41"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="43"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3949,7 +4082,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -3966,8 +4099,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                             OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/REGULAR/TREASURY/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/TREASURY/OLEGARIO TEOFISTA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD299D-AACC-48AE-92F9-3AD6E0CC8C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6998680-1DE8-4EE6-8452-7049D1A5A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1381,9 +1381,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="3576" topLeftCell="A84" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,7 +1550,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>167.274</v>
+        <v>168.524</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1560,7 +1560,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>322.12</v>
+        <v>323.37</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3303,13 +3303,15 @@
         <v>44986</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -3321,7 +3323,9 @@
         <f t="shared" si="0"/>
         <v>45017</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -3333,7 +3337,9 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="49">
+        <v>45029</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
